--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\2.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Before</t>
   </si>
@@ -83,25 +89,121 @@
     <t>https://www.youtube.com/embed/aaDQ6GHCtwA</t>
   </si>
   <si>
-    <t>Lesson 2: Finding Area of Triangle</t>
-  </si>
-  <si>
-    <t>Lesson 2.1: Introduction to Non-Right Angle Triangles</t>
-  </si>
-  <si>
-    <t>Lesson 2.2: The Area Formula</t>
-  </si>
-  <si>
-    <t>Lesson 2.3: Practice Questions</t>
-  </si>
-  <si>
     <t>Lesson 2.4: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 2.1: Finding 3rd Side of a Triangle</t>
+  </si>
+  <si>
+    <t>Lesson 2.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 2: Cosine Rule to Find Side</t>
+  </si>
+  <si>
+    <t>Lesson 3: Cosine Rule to Find Angle</t>
+  </si>
+  <si>
+    <t>Lesson 3.1: Finding Angle when Given 3 Sides</t>
+  </si>
+  <si>
+    <t>Lesson 3.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 4: Sine Rule to Find Side</t>
+  </si>
+  <si>
+    <t>Lesson 4.1: Finding Side when Given 2 Angles and 1 Side</t>
+  </si>
+  <si>
+    <t>Lesson 4.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 5: Sine Rule to Find Angle</t>
+  </si>
+  <si>
+    <t>Lesson 5.1: Finding Angle when Given 2 Sides and 1 Angle</t>
+  </si>
+  <si>
+    <t>Lesson 5.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 2.3: Revision - Mixed Questions</t>
+  </si>
+  <si>
+    <t>Lesson 3.3: Revision - Mixed Questions</t>
+  </si>
+  <si>
+    <t>Lesson 3.4: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 4.3: Revision - Mixed Questions</t>
+  </si>
+  <si>
+    <t>Lesson 4.4: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 5.3: Revision - Mixed Questions</t>
+  </si>
+  <si>
+    <t>Lesson 5.4: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 6.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 6: Area of Sector</t>
+  </si>
+  <si>
+    <t>Lesson 6.1: The Area of a Sector Formula</t>
+  </si>
+  <si>
+    <t>Lesson 7: Arc Length of Sector</t>
+  </si>
+  <si>
+    <t>Lesson 7.1: The Arc Length Formula</t>
+  </si>
+  <si>
+    <t>Lesson 7.2: Practice Questions</t>
+  </si>
+  <si>
+    <t>Lesson 7.3: Revision - Mixed Questions</t>
+  </si>
+  <si>
+    <t>Lesson 7.4: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 6.3: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 8: Multi Step Questions</t>
+  </si>
+  <si>
+    <t>Lesson 8.1: Examples of Multi Step Questions</t>
+  </si>
+  <si>
+    <t>Lesson 8.2: Multi Step Questions</t>
+  </si>
+  <si>
+    <t>Lesson 8.3: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 9: Investigation Questions</t>
+  </si>
+  <si>
+    <t>Lesson 9.1: Example Investigation Question</t>
+  </si>
+  <si>
+    <t>Lesson 9.2: Investigation Questions</t>
+  </si>
+  <si>
+    <t>Lesson 9.3: Extra Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,9 +312,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,9 +347,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -427,17 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(I2&lt;&gt;"Lesson","&lt;a href='"&amp;H2&amp;".html' class="&amp;I2&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -479,11 +583,11 @@
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E2" t="str">
-        <f>LEFT(B2,FIND(":",B2)-1)</f>
+        <f t="shared" ref="E2:E13" si="0">LEFT(B2,FIND(":",B2)-1)</f>
         <v>Lesson 1</v>
       </c>
       <c r="F2" t="str">
-        <f>RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
+        <f t="shared" ref="F2:F43" si="1">RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -498,24 +602,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A11" si="0">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A3:A43" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_1_1.html' class=Video&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="1">IF(I3&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C3:C16" si="3">IF(I3&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E3" t="str">
-        <f>LEFT(B3,FIND(":",B3)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 1.1</v>
       </c>
       <c r="F3" t="str">
-        <f>RIGHT(E3,LEN(E3)-FIND(" ",E3))</f>
+        <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
       <c r="G3" t="str">
@@ -533,32 +637,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_2.html' class=Video&gt;</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E4" t="str">
-        <f>LEFT(B4,FIND(":",B4)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 1.2</v>
       </c>
       <c r="F4" t="str">
-        <f>RIGHT(E4,LEN(E4)-FIND(" ",E4))</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G6" si="2">SUBSTITUTE(F4,".","_")</f>
+        <f t="shared" ref="G4:G6" si="4">SUBSTITUTE(F4,".","_")</f>
         <v>1_2</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H3:H6" si="3">"2.4_"&amp;G4</f>
+        <f t="shared" ref="H4:H6" si="5">"2.4_"&amp;G4</f>
         <v>2.4_1_2</v>
       </c>
       <c r="I4" t="s">
@@ -568,32 +672,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_3.html' class=Questions&gt;</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E5" t="str">
-        <f>LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 1.3</v>
       </c>
       <c r="F5" t="str">
-        <f>RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1_3</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4_1_3</v>
       </c>
       <c r="I5" t="s">
@@ -603,32 +707,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_4.html' class=Document&gt;</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E6" t="str">
-        <f>LEFT(B6,FIND(":",B6)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 1.4</v>
       </c>
       <c r="F6" t="str">
-        <f>RIGHT(E6,LEN(E6)-FIND(" ",E6))</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1_4</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4_1_4</v>
       </c>
       <c r="I6" t="s">
@@ -639,24 +743,24 @@
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;/span&gt;</v>
-      </c>
-      <c r="E7" t="str">
-        <f>LEFT(B7,FIND(":",B7)-1)</f>
         <v>Lesson 2</v>
       </c>
       <c r="F7" t="str">
-        <f>RIGHT(E7,LEN(E7)-FIND(" ",E7))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G7" t="str">
@@ -671,24 +775,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E8" t="str">
-        <f>LEFT(B8,FIND(":",B8)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 2.1</v>
       </c>
       <c r="F8" t="str">
-        <f>RIGHT(E8,LEN(E8)-FIND(" ",E8))</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
       <c r="G8" t="str">
@@ -706,67 +810,67 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='2.4_2_2.html' class=Video&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_2_2.html' class=Questions&gt;</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E9" t="str">
-        <f>LEFT(B9,FIND(":",B9)-1)</f>
+        <f t="shared" si="0"/>
         <v>Lesson 2.2</v>
       </c>
       <c r="F9" t="str">
-        <f>RIGHT(E9,LEN(E9)-FIND(" ",E9))</f>
+        <f t="shared" si="1"/>
         <v>2.2</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="G9:G11" si="4">SUBSTITUTE(F9,".","_")</f>
+        <f t="shared" ref="G9:G13" si="6">SUBSTITUTE(F9,".","_")</f>
         <v>2_2</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ref="H9:H11" si="5">"2.4_"&amp;G9</f>
+        <f t="shared" ref="H9:H13" si="7">"2.4_"&amp;G9</f>
         <v>2.4_2_2</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10" si="8">IF(I10&lt;&gt;"Lesson","&lt;a href='"&amp;H10&amp;".html' class="&amp;I10&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_2_3.html' class=Questions&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C10" si="9">IF(I10&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E10" t="str">
-        <f>LEFT(B10,FIND(":",B10)-1)</f>
+        <f t="shared" ref="E10" si="10">LEFT(B10,FIND(":",B10)-1)</f>
         <v>Lesson 2.3</v>
       </c>
       <c r="F10" t="str">
-        <f>RIGHT(E10,LEN(E10)-FIND(" ",E10))</f>
+        <f t="shared" si="1"/>
         <v>2.3</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G10" si="11">SUBSTITUTE(F10,".","_")</f>
         <v>2_3</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H10" si="12">"2.4_"&amp;G10</f>
         <v>2.4_2_3</v>
       </c>
       <c r="I10" t="s">
@@ -776,32 +880,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_2_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='2.4_2_4.html' class=Document&gt;</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E11" t="str">
-        <f>LEFT(B11,FIND(":",B11)-1)</f>
         <v>Lesson 2.4</v>
       </c>
       <c r="F11" t="str">
-        <f>RIGHT(E11,LEN(E11)-FIND(" ",E11))</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2_4</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4_2_4</v>
       </c>
       <c r="I11" t="s">
@@ -810,6 +914,1036 @@
       <c r="J11" t="str">
         <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true"</f>
         <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lesson 3</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="7"/>
+        <v>2.4_3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_3_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lesson 3.1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="6"/>
+        <v>3_1</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="7"/>
+        <v>2.4_3_1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_3_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ref="E14:E16" si="13">LEFT(B14,FIND(":",B14)-1)</f>
+        <v>Lesson 3.2</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G16" si="14">SUBSTITUTE(F14,".","_")</f>
+        <v>3_2</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14:H16" si="15">"2.4_"&amp;G14</f>
+        <v>2.4_3_2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_3_3.html' class=Questions&gt;</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="13"/>
+        <v>Lesson 3.3</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="14"/>
+        <v>3_3</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="15"/>
+        <v>2.4_3_3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_3_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="13"/>
+        <v>Lesson 3.4</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="14"/>
+        <v>3_4</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="15"/>
+        <v>2.4_3_4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:C21" si="16">IF(I17&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ref="E17:E21" si="17">LEFT(B17,FIND(":",B17)-1)</f>
+        <v>Lesson 4</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ref="G17:G21" si="18">SUBSTITUTE(F17,".","_")</f>
+        <v>4</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:H21" si="19">"2.4_"&amp;G17</f>
+        <v>2.4_4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_4_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="17"/>
+        <v>Lesson 4.1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>4.1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="18"/>
+        <v>4_1</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="19"/>
+        <v>2.4_4_1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_4_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="17"/>
+        <v>Lesson 4.2</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="18"/>
+        <v>4_2</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="19"/>
+        <v>2.4_4_2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20" si="20">IF(I20&lt;&gt;"Lesson","&lt;a href='"&amp;H20&amp;".html' class="&amp;I20&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_4_3.html' class=Questions&gt;</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="17"/>
+        <v>Lesson 4.3</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="18"/>
+        <v>4_3</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="19"/>
+        <v>2.4_4_3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_4_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="17"/>
+        <v>Lesson 4.4</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>4.4</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="18"/>
+        <v>4_4</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="19"/>
+        <v>2.4_4_4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C43" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E35" si="22">LEFT(B22,FIND(":",B22)-1)</f>
+        <v>Lesson 5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G35" si="23">SUBSTITUTE(F22,".","_")</f>
+        <v>5</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H35" si="24">"2.4_"&amp;G22</f>
+        <v>2.4_5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_5_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 5.1</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>5.1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="23"/>
+        <v>5_1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_5_1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_5_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 5.2</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="23"/>
+        <v>5_2</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_5_2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_5_3.html' class=Questions&gt;</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 5.3</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="23"/>
+        <v>5_3</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_5_3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_5_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 5.4</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="23"/>
+        <v>5_4</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_5_4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 6</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_6_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="22"/>
+        <v>Lesson 6.1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="23"/>
+        <v>6_1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="24"/>
+        <v>2.4_6_1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_6_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ref="E29:E42" si="25">LEFT(B29,FIND(":",B29)-1)</f>
+        <v>Lesson 6.2</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G42" si="26">SUBSTITUTE(F29,".","_")</f>
+        <v>6_2</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ref="H29:H42" si="27">"2.4_"&amp;G29</f>
+        <v>2.4_6_2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_6_3.html' class=Document&gt;</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 6.3</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="26"/>
+        <v>6_3</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_6_3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 7</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_7_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 7.1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="26"/>
+        <v>7_1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_7_1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_7_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 7.2</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="26"/>
+        <v>7_2</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_7_2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_7_3.html' class=Questions&gt;</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 7.3</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>7.3</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="26"/>
+        <v>7_3</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_7_3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_7_4.html' class=Document&gt;</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 7.4</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="26"/>
+        <v>7_4</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_7_4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 8</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_8_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 8.1</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="26"/>
+        <v>8_1</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_8_1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 8.2</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>8.2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="26"/>
+        <v>8_2</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_8_2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_8_3.html' class=Document&gt;</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 8.3</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>8.3</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="26"/>
+        <v>8_3</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_8_3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 9</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_9_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 9.1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="26"/>
+        <v>9_1</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_9_1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 9.2</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>9.2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="26"/>
+        <v>9_2</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_9_2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_9_3.html' class=Document&gt;</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43" si="28">LEFT(B43,FIND(":",B43)-1)</f>
+        <v>Lesson 9.3</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>9.3</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ref="G43" si="29">SUBSTITUTE(F43,".","_")</f>
+        <v>9_3</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" ref="H43" si="30">"2.4_"&amp;G43</f>
+        <v>2.4_9_3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -817,9 +1951,8 @@
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
     <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Before</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Lesson 9.3: Extra Notes</t>
+  </si>
+  <si>
+    <t>Great place to include an extra video on ambigous sin rule</t>
   </si>
 </sst>
 </file>
@@ -221,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,12 +251,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -531,14 +541,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1255,7 +1266,7 @@
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:E35" si="22">LEFT(B22,FIND(":",B22)-1)</f>
+        <f t="shared" ref="E22:E28" si="22">LEFT(B22,FIND(":",B22)-1)</f>
         <v>Lesson 5</v>
       </c>
       <c r="F22" t="str">
@@ -1263,11 +1274,11 @@
         <v>5</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G35" si="23">SUBSTITUTE(F22,".","_")</f>
+        <f t="shared" ref="G22:G28" si="23">SUBSTITUTE(F22,".","_")</f>
         <v>5</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H35" si="24">"2.4_"&amp;G22</f>
+        <f t="shared" ref="H22:H28" si="24">"2.4_"&amp;G22</f>
         <v>2.4_5</v>
       </c>
       <c r="I22" t="s">
@@ -1381,6 +1392,9 @@
       <c r="C26" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="22"/>

--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>Before</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Page</t>
   </si>
   <si>
-    <t>http://students.mathsnz.com/qg/onscreen.html#timeseries1problem3,timeseries1problem4,timeseries1problem5,timeseries1problem6,</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Lesson 1.4: Extra Notes</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/aaDQ6GHCtwA</t>
-  </si>
-  <si>
     <t>Lesson 2.4: Extra Notes</t>
   </si>
   <si>
@@ -201,6 +195,45 @@
   </si>
   <si>
     <t>Great place to include an extra video on ambigous sin rule</t>
+  </si>
+  <si>
+    <t>nonratrig1findarea</t>
+  </si>
+  <si>
+    <t>nonratrig2cosfindside</t>
+  </si>
+  <si>
+    <t>nonratrig2mixedareaandcosfindside</t>
+  </si>
+  <si>
+    <t>nonratrig3cosfindangle</t>
+  </si>
+  <si>
+    <t>nonratrig4sinfindside</t>
+  </si>
+  <si>
+    <t>nonratrig5sinfindangle</t>
+  </si>
+  <si>
+    <t>nonratrig6sectorfindarc</t>
+  </si>
+  <si>
+    <t>nonratrig6sectorfindper</t>
+  </si>
+  <si>
+    <t>nonratrig7sectorfindarea</t>
+  </si>
+  <si>
+    <t>nonratrig7sectorfindeverything</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/mAdDPyWudZc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/egsIc4y_7F8</t>
   </si>
 </sst>
 </file>
@@ -539,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,9 +583,10 @@
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,19 +609,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(I2&lt;&gt;"Lesson","&lt;a href='"&amp;H2&amp;".html' class="&amp;I2&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f>IF(I2&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -610,16 +644,16 @@
         <v>2.4_1</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A43" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_1_1.html' class=Video&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C16" si="3">IF(I3&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -642,19 +676,19 @@
         <v>2.4_1_1</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_2.html' class=Video&gt;</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="3"/>
@@ -677,19 +711,19 @@
         <v>2.4_1_2</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_3.html' class=Questions&gt;</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="3"/>
@@ -712,19 +746,35 @@
         <v>2.4_1_3</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_1_4.html' class=Document&gt;</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="3"/>
@@ -747,20 +797,19 @@
         <v>2.4_1_4</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="str">
-        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="3"/>
@@ -783,16 +832,16 @@
         <v>2.4_2</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -815,19 +864,19 @@
         <v>2.4_2_1</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_2_2.html' class=Questions&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="3"/>
@@ -850,19 +899,35 @@
         <v>2.4_2_2</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" ref="A10" si="8">IF(I10&lt;&gt;"Lesson","&lt;a href='"&amp;H10&amp;".html' class="&amp;I10&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_2_3.html' class=Questions&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10" si="9">IF(I10&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -885,19 +950,35 @@
         <v>2.4_2_3</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_2_4.html' class=Document&gt;</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
@@ -920,20 +1001,16 @@
         <v>2.4_2_4</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="str">
-        <f>"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.8/pdfs/1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
@@ -956,16 +1033,16 @@
         <v>2.4_3</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
@@ -988,16 +1065,19 @@
         <v>2.4_3_1</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_3_2.html' class=Questions&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
@@ -1020,16 +1100,35 @@
         <v>2.4_3_2</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K14&amp;","&amp;L14&amp;","&amp;M14&amp;","&amp;N14&amp;","&amp;O14&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_3_3.html' class=Questions&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="3"/>
@@ -1052,19 +1151,35 @@
         <v>2.4_3_3</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K15&amp;","&amp;L15&amp;","&amp;M15&amp;","&amp;N15&amp;","&amp;O15&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_3_4.html' class=Document&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="3"/>
@@ -1087,16 +1202,16 @@
         <v>2.4_3_4</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ref="C17:C21" si="16">IF(I17&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1119,16 +1234,16 @@
         <v>2.4_4</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_4_1.html' class=Video&gt;</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="16"/>
@@ -1151,16 +1266,19 @@
         <v>2.4_4_1</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_4_2.html' class=Questions&gt;</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="16"/>
@@ -1183,16 +1301,35 @@
         <v>2.4_4_2</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ref="A20" si="20">IF(I20&lt;&gt;"Lesson","&lt;a href='"&amp;H20&amp;".html' class="&amp;I20&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_4_3.html' class=Questions&gt;</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="16"/>
@@ -1215,19 +1352,35 @@
         <v>2.4_4_3</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K20&amp;","&amp;L20&amp;","&amp;M20&amp;","&amp;N20&amp;","&amp;O20&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_4_4.html' class=Document&gt;</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="16"/>
@@ -1250,16 +1403,16 @@
         <v>2.4_4_4</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:C43" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1282,16 +1435,16 @@
         <v>2.4_5</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="21"/>
@@ -1314,16 +1467,19 @@
         <v>2.4_5_1</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_5_2.html' class=Questions&gt;</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="21"/>
@@ -1346,16 +1502,35 @@
         <v>2.4_5_2</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K24&amp;","&amp;L24&amp;","&amp;M24&amp;","&amp;N24&amp;","&amp;O24&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
+      </c>
+      <c r="K24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_5_3.html' class=Questions&gt;</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="21"/>
@@ -1378,23 +1553,42 @@
         <v>2.4_5_3</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_5_4.html' class=Document&gt;</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="22"/>
@@ -1413,16 +1607,16 @@
         <v>2.4_5_4</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="21"/>
@@ -1445,16 +1639,16 @@
         <v>2.4_6</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_6_1.html' class=Video&gt;</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="21"/>
@@ -1477,16 +1671,19 @@
         <v>2.4_6_1</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_6_2.html' class=Questions&gt;</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="21"/>
@@ -1509,16 +1706,35 @@
         <v>2.4_6_2</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_6_3.html' class=Document&gt;</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="21"/>
@@ -1541,16 +1757,16 @@
         <v>2.4_6_3</v>
       </c>
       <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="21"/>
@@ -1573,16 +1789,16 @@
         <v>2.4_7</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_1.html' class=Video&gt;</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="21"/>
@@ -1605,16 +1821,19 @@
         <v>2.4_7_1</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_2.html' class=Questions&gt;</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="21"/>
@@ -1637,16 +1856,35 @@
         <v>2.4_7_2</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;","&amp;N33&amp;","&amp;O33&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_3.html' class=Questions&gt;</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="21"/>
@@ -1669,16 +1907,35 @@
         <v>2.4_7_3</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;","&amp;O34&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
+      </c>
+      <c r="K34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_4.html' class=Document&gt;</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="21"/>
@@ -1701,16 +1958,16 @@
         <v>2.4_7_4</v>
       </c>
       <c r="I35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="21"/>
@@ -1733,16 +1990,16 @@
         <v>2.4_8</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_1.html' class=Video&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="21"/>
@@ -1765,16 +2022,19 @@
         <v>2.4_8_1</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="21"/>
@@ -1797,16 +2057,20 @@
         <v>2.4_8_2</v>
       </c>
       <c r="I38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_3.html' class=Document&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="21"/>
@@ -1829,16 +2093,16 @@
         <v>2.4_8_3</v>
       </c>
       <c r="I39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="21"/>
@@ -1861,16 +2125,16 @@
         <v>2.4_9</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_1.html' class=Video&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="21"/>
@@ -1893,16 +2157,19 @@
         <v>2.4_9_1</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="21"/>
@@ -1925,16 +2192,20 @@
         <v>2.4_9_2</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
+        <v>http://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_3.html' class=Document&gt;</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="21"/>
@@ -1957,16 +2228,15 @@
         <v>2.4_9_3</v>
       </c>
       <c r="I43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>Before</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/egsIc4y_7F8</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.1.pdf&amp;embedded=true</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,8 +802,8 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2235,8 +2238,9 @@
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,8 +752,8 @@
         <v>10</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K5&amp;","&amp;L5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
@@ -905,8 +905,8 @@
         <v>10</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K9&amp;","&amp;L9&amp;","&amp;M9&amp;","&amp;N9&amp;","&amp;O9&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -956,8 +956,8 @@
         <v>10</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10&amp;","&amp;O10&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -1106,8 +1106,8 @@
         <v>10</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K14&amp;","&amp;L14&amp;","&amp;M14&amp;","&amp;N14&amp;","&amp;O14&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K14&amp;","&amp;L14&amp;","&amp;M14&amp;","&amp;N14&amp;","&amp;O14&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
       </c>
       <c r="K14" t="s">
         <v>58</v>
@@ -1157,8 +1157,8 @@
         <v>10</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K15&amp;","&amp;L15&amp;","&amp;M15&amp;","&amp;N15&amp;","&amp;O15&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K15&amp;","&amp;L15&amp;","&amp;M15&amp;","&amp;N15&amp;","&amp;O15&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -1307,8 +1307,8 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K19&amp;","&amp;L19&amp;","&amp;M19&amp;","&amp;N19&amp;","&amp;O19&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>
@@ -1358,8 +1358,8 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K20&amp;","&amp;L20&amp;","&amp;M20&amp;","&amp;N20&amp;","&amp;O20&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K20&amp;","&amp;L20&amp;","&amp;M20&amp;","&amp;N20&amp;","&amp;O20&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -1508,8 +1508,8 @@
         <v>10</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K24&amp;","&amp;L24&amp;","&amp;M24&amp;","&amp;N24&amp;","&amp;O24&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K24&amp;","&amp;L24&amp;","&amp;M24&amp;","&amp;N24&amp;","&amp;O24&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
       </c>
       <c r="K24" t="s">
         <v>60</v>
@@ -1559,8 +1559,8 @@
         <v>10</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K25&amp;","&amp;L25&amp;","&amp;M25&amp;","&amp;N25&amp;","&amp;O25&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K25" t="s">
         <v>59</v>
@@ -1712,8 +1712,8 @@
         <v>10</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
       </c>
       <c r="K29" t="s">
         <v>63</v>
@@ -1862,8 +1862,8 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;","&amp;N33&amp;","&amp;O33&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;","&amp;N33&amp;","&amp;O33&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
       </c>
       <c r="K33" t="s">
         <v>61</v>
@@ -1913,8 +1913,8 @@
         <v>10</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;","&amp;O34&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;","&amp;O34&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
       </c>
       <c r="K34" t="s">
         <v>64</v>
@@ -2063,8 +2063,8 @@
         <v>10</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2198,8 +2198,8 @@
         <v>10</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">

--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>Before</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Lesson 2.4: Extra Notes</t>
   </si>
   <si>
-    <t>Lesson 2.1: Finding 3rd Side of a Triangle</t>
-  </si>
-  <si>
     <t>Lesson 2.2: Practice Questions</t>
   </si>
   <si>
@@ -237,6 +234,45 @@
   </si>
   <si>
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.1.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 2.1: Finding Third Side of a Triangle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/QNqa3HsI5ag</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/OIZbhrbEw8k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/K22jl5crzEI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/CAN1mDmvdQ8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/i95-MKwa30M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/eauQjyKP89w</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.2.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.3.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.7.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.6.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.5.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.4.pdf&amp;embedded=true</t>
   </si>
 </sst>
 </file>
@@ -578,7 +614,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -682,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -717,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -756,19 +792,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -803,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -812,7 +848,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="3"/>
@@ -844,7 +880,7 @@
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -870,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -879,7 +915,7 @@
         <v>&lt;a href='2.4_2_2.html' class=Questions&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="3"/>
@@ -909,19 +945,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -930,7 +966,7 @@
         <v>&lt;a href='2.4_2_3.html' class=Questions&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10" si="9">IF(I10&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -960,19 +996,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1006,6 +1042,9 @@
       <c r="I11" t="s">
         <v>8</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
@@ -1013,7 +1052,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
@@ -1045,7 +1084,7 @@
         <v>&lt;a href='2.4_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
@@ -1070,8 +1109,8 @@
       <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" t="s">
-        <v>66</v>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1080,7 +1119,7 @@
         <v>&lt;a href='2.4_3_2.html' class=Questions&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
@@ -1110,19 +1149,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1131,7 +1170,7 @@
         <v>&lt;a href='2.4_3_3.html' class=Questions&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="3"/>
@@ -1161,19 +1200,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
         <v>57</v>
       </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
       <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
         <v>57</v>
       </c>
-      <c r="N15" t="s">
-        <v>58</v>
-      </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1182,7 +1221,7 @@
         <v>&lt;a href='2.4_3_4.html' class=Document&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="3"/>
@@ -1207,6 +1246,9 @@
       <c r="I16" t="s">
         <v>8</v>
       </c>
+      <c r="J16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
@@ -1214,7 +1256,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ref="C17:C21" si="16">IF(I17&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1246,7 +1288,7 @@
         <v>&lt;a href='2.4_4_1.html' class=Video&gt;</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="16"/>
@@ -1271,8 +1313,8 @@
       <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" t="s">
-        <v>66</v>
+      <c r="J18" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1281,7 +1323,7 @@
         <v>&lt;a href='2.4_4_2.html' class=Questions&gt;</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="16"/>
@@ -1311,19 +1353,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1332,7 +1374,7 @@
         <v>&lt;a href='2.4_4_3.html' class=Questions&gt;</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="16"/>
@@ -1362,19 +1404,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
       </c>
       <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
         <v>57</v>
       </c>
-      <c r="L20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
       <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
         <v>57</v>
-      </c>
-      <c r="O20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1383,7 +1425,7 @@
         <v>&lt;a href='2.4_4_4.html' class=Document&gt;</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="16"/>
@@ -1408,6 +1450,9 @@
       <c r="I21" t="s">
         <v>8</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
@@ -1415,7 +1460,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22:C43" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1447,7 +1492,7 @@
         <v>&lt;a href='2.4_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="21"/>
@@ -1472,8 +1517,8 @@
       <c r="I23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
-        <v>66</v>
+      <c r="J23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1482,7 +1527,7 @@
         <v>&lt;a href='2.4_5_2.html' class=Questions&gt;</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="21"/>
@@ -1512,19 +1557,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1533,7 +1578,7 @@
         <v>&lt;a href='2.4_5_3.html' class=Questions&gt;</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="21"/>
@@ -1563,19 +1608,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" t="s">
         <v>57</v>
       </c>
-      <c r="M25" t="s">
-        <v>58</v>
-      </c>
       <c r="N25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1584,14 +1629,14 @@
         <v>&lt;a href='2.4_5_4.html' class=Document&gt;</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="22"/>
@@ -1612,6 +1657,9 @@
       <c r="I26" t="s">
         <v>8</v>
       </c>
+      <c r="J26" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
@@ -1619,7 +1667,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="21"/>
@@ -1651,7 +1699,7 @@
         <v>&lt;a href='2.4_6_1.html' class=Video&gt;</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="21"/>
@@ -1676,8 +1724,8 @@
       <c r="I28" t="s">
         <v>9</v>
       </c>
-      <c r="J28" t="s">
-        <v>66</v>
+      <c r="J28" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1686,7 +1734,7 @@
         <v>&lt;a href='2.4_6_2.html' class=Questions&gt;</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="21"/>
@@ -1716,19 +1764,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1737,7 +1785,7 @@
         <v>&lt;a href='2.4_6_3.html' class=Document&gt;</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="21"/>
@@ -1762,6 +1810,9 @@
       <c r="I30" t="s">
         <v>8</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
@@ -1769,7 +1820,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="21"/>
@@ -1801,7 +1852,7 @@
         <v>&lt;a href='2.4_7_1.html' class=Video&gt;</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="21"/>
@@ -1826,8 +1877,8 @@
       <c r="I32" t="s">
         <v>9</v>
       </c>
-      <c r="J32" t="s">
-        <v>66</v>
+      <c r="J32" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1836,7 +1887,7 @@
         <v>&lt;a href='2.4_7_2.html' class=Questions&gt;</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="21"/>
@@ -1866,19 +1917,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
       </c>
       <c r="K33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" t="s">
         <v>61</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>61</v>
-      </c>
-      <c r="M33" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" t="s">
-        <v>62</v>
-      </c>
-      <c r="O33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1887,7 +1938,7 @@
         <v>&lt;a href='2.4_7_3.html' class=Questions&gt;</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="21"/>
@@ -1917,19 +1968,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
       </c>
       <c r="K34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1938,7 +1989,7 @@
         <v>&lt;a href='2.4_7_4.html' class=Document&gt;</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="21"/>
@@ -1963,6 +2014,9 @@
       <c r="I35" t="s">
         <v>8</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
@@ -1970,7 +2024,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="21"/>
@@ -2002,7 +2056,7 @@
         <v>&lt;a href='2.4_8_1.html' class=Video&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="21"/>
@@ -2028,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2037,7 +2091,7 @@
         <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="21"/>
@@ -2073,7 +2127,7 @@
         <v>&lt;a href='2.4_8_3.html' class=Document&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="21"/>
@@ -2105,7 +2159,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="21"/>
@@ -2137,7 +2191,7 @@
         <v>&lt;a href='2.4_9_1.html' class=Video&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="21"/>
@@ -2163,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2172,7 +2226,7 @@
         <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="21"/>
@@ -2208,7 +2262,7 @@
         <v>&lt;a href='2.4_9_3.html' class=Document&gt;</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="21"/>
@@ -2239,8 +2293,20 @@
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
     <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J13" r:id="rId5"/>
+    <hyperlink ref="J18" r:id="rId6"/>
+    <hyperlink ref="J23" r:id="rId7"/>
+    <hyperlink ref="J28" r:id="rId8"/>
+    <hyperlink ref="J32" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J16" r:id="rId11"/>
+    <hyperlink ref="J21" r:id="rId12"/>
+    <hyperlink ref="J26" r:id="rId13"/>
+    <hyperlink ref="J30" r:id="rId14"/>
+    <hyperlink ref="J35" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t>Before</t>
   </si>
@@ -173,24 +173,12 @@
     <t>Lesson 8.1: Examples of Multi Step Questions</t>
   </si>
   <si>
-    <t>Lesson 8.2: Multi Step Questions</t>
-  </si>
-  <si>
-    <t>Lesson 8.3: Extra Notes</t>
-  </si>
-  <si>
     <t>Lesson 9: Investigation Questions</t>
   </si>
   <si>
     <t>Lesson 9.1: Example Investigation Question</t>
   </si>
   <si>
-    <t>Lesson 9.2: Investigation Questions</t>
-  </si>
-  <si>
-    <t>Lesson 9.3: Extra Notes</t>
-  </si>
-  <si>
     <t>Great place to include an extra video on ambigous sin rule</t>
   </si>
   <si>
@@ -273,6 +261,48 @@
   </si>
   <si>
     <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.4.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 8.2: Multi Step Questions 1</t>
+  </si>
+  <si>
+    <t>Lesson 9.2: Investigation Question 1</t>
+  </si>
+  <si>
+    <t>Lesson 9.3: Investigation Question 1</t>
+  </si>
+  <si>
+    <t>Lesson 8.3: Multi Step Questions 2</t>
+  </si>
+  <si>
+    <t>Lesson 8.4: Multi Step Questions 3</t>
+  </si>
+  <si>
+    <t>nonratrig8cosrulesinruleareascafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8cosrulesinruleareanotscafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8cosrulecosruleareascafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8cosrulecosruleareanotscafolded</t>
+  </si>
+  <si>
+    <t>Lesson 8.5: Multi Step Questions 4</t>
+  </si>
+  <si>
+    <t>nonratrig8sinrulecosrulesectorareascafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8sinrulecosrulesectorareanotscafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8threetrianglesandsectorscafolded</t>
+  </si>
+  <si>
+    <t>nonratrig8threetrianglesandsectornotscafolded</t>
   </si>
 </sst>
 </file>
@@ -611,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,7 +701,7 @@
         <v>Lesson 1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F43" si="1">RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
+        <f t="shared" ref="F2:F44" si="1">RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -688,7 +718,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A43" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A3:A44" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_1_1.html' class=Video&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -718,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -753,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -792,19 +822,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -839,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -880,7 +910,7 @@
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -906,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -945,19 +975,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -996,19 +1026,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1043,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1110,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1149,19 +1179,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1200,19 +1230,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1247,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1314,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1353,19 +1383,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1404,19 +1434,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1451,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1463,7 +1493,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C43" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C22:C44" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E22" t="str">
@@ -1518,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1557,19 +1587,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1608,19 +1638,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1636,7 +1666,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="22"/>
@@ -1658,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1725,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1741,7 +1771,7 @@
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E42" si="25">LEFT(B29,FIND(":",B29)-1)</f>
+        <f t="shared" ref="E29:E44" si="25">LEFT(B29,FIND(":",B29)-1)</f>
         <v>Lesson 6.2</v>
       </c>
       <c r="F29" t="str">
@@ -1749,11 +1779,11 @@
         <v>6.2</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ref="G29:G42" si="26">SUBSTITUTE(F29,".","_")</f>
+        <f t="shared" ref="G29:G44" si="26">SUBSTITUTE(F29,".","_")</f>
         <v>6_2</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:H42" si="27">"2.4_"&amp;G29</f>
+        <f t="shared" ref="H29:H44" si="27">"2.4_"&amp;G29</f>
         <v>2.4_6_2</v>
       </c>
       <c r="I29" t="s">
@@ -1764,19 +1794,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1811,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1878,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1917,19 +1947,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
       </c>
       <c r="K33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1968,19 +1998,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2015,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2082,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2091,7 +2121,7 @@
         <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="21"/>
@@ -2118,174 +2148,278 @@
       </c>
       <c r="J38" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulecosruleareascafolded,nonratrig8cosrulecosruleareanotscafolded,,,,</v>
+      </c>
+      <c r="K38" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='2.4_8_3.html' class=Document&gt;</v>
+        <f t="shared" ref="A39:A40" si="28">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_8_3.html' class=Questions&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C39:C40" si="29">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E39:E40" si="30">LEFT(B39,FIND(":",B39)-1)</f>
         <v>Lesson 8.3</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F39:F40" si="31">RIGHT(E39,LEN(E39)-FIND(" ",E39))</f>
         <v>8.3</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="G39:G40" si="32">SUBSTITUTE(F39,".","_")</f>
         <v>8_3</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H39:H40" si="33">"2.4_"&amp;G39</f>
         <v>2.4_8_3</v>
       </c>
       <c r="I39" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K39&amp;","&amp;L39&amp;","&amp;M39&amp;","&amp;N39&amp;","&amp;O39&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulesinruleareascafolded,nonratrig8cosrulesinruleareanotscafolded,,,,</v>
+      </c>
+      <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;a href='2.4_8_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="30"/>
+        <v>Lesson 8.4</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="31"/>
+        <v>8.4</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="32"/>
+        <v>8_4</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="33"/>
+        <v>2.4_8_4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;","&amp;N40&amp;","&amp;O40&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8sinrulecosrulesectorareascafolded,nonratrig8sinrulecosrulesectorareanotscafolded,,,,</v>
+      </c>
+      <c r="K40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_8_5.html' class=Questions&gt;</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="21"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="25"/>
+        <v>Lesson 8.5</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="26"/>
+        <v>8_5</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="27"/>
+        <v>2.4_8_5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K41&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;N41&amp;","&amp;O41&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8threetrianglesandsectorscafolded,nonratrig8threetrianglesandsectornotscafolded,,,,</v>
+      </c>
+      <c r="K41" t="s">
+        <v>89</v>
+      </c>
+      <c r="L41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="str">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/span&gt;</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="25"/>
         <v>Lesson 9</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_1.html' class=Video&gt;</v>
       </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="str">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="25"/>
         <v>Lesson 9.1</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="26"/>
         <v>9_1</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9_1</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I43" t="s">
         <v>9</v>
       </c>
-      <c r="J41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
+      <c r="J43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="str">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="str">
         <f t="shared" si="21"/>
         <v>&lt;/a&gt;</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="25"/>
         <v>Lesson 9.2</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
         <v>9.2</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="26"/>
         <v>9_2</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9_2</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
+      <c r="J44" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K44&amp;","&amp;L44&amp;","&amp;M44&amp;","&amp;N44&amp;","&amp;O44&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='2.4_9_3.html' class=Document&gt;</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" ref="E43" si="28">LEFT(B43,FIND(":",B43)-1)</f>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" ref="A45" si="34">IF(I45&lt;&gt;"Lesson","&lt;a href='"&amp;H45&amp;".html' class="&amp;I45&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_9_3.html' class=Questions&gt;</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45" si="35">IF(I45&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45" si="36">LEFT(B45,FIND(":",B45)-1)</f>
         <v>Lesson 9.3</v>
       </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
+      <c r="F45" t="str">
+        <f t="shared" ref="F45" si="37">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
         <v>9.3</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" ref="G43" si="29">SUBSTITUTE(F43,".","_")</f>
+      <c r="G45" t="str">
+        <f t="shared" ref="G45" si="38">SUBSTITUTE(F45,".","_")</f>
         <v>9_3</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" ref="H43" si="30">"2.4_"&amp;G43</f>
+      <c r="H45" t="str">
+        <f t="shared" ref="H45" si="39">"2.4_"&amp;G45</f>
         <v>2.4_9_3</v>
       </c>
-      <c r="I43" t="s">
-        <v>8</v>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K45&amp;","&amp;L45&amp;","&amp;M45&amp;","&amp;N45&amp;","&amp;O45&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
       </c>
     </row>
   </sheetData>

--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -212,9 +212,6 @@
     <t>nonratrig7sectorfindeverything</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/mAdDPyWudZc</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>nonratrig8threetrianglesandsectornotscafolded</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/SFMm7aXTMhE</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2121,7 +2121,7 @@
         <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="21"/>
@@ -2151,10 +2151,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulecosruleareascafolded,nonratrig8cosrulecosruleareanotscafolded,,,,</v>
       </c>
       <c r="K38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" t="s">
         <v>84</v>
-      </c>
-      <c r="L38" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2163,7 +2163,7 @@
         <v>&lt;a href='2.4_8_3.html' class=Questions&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ref="C39:C40" si="29">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2193,10 +2193,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulesinruleareascafolded,nonratrig8cosrulesinruleareanotscafolded,,,,</v>
       </c>
       <c r="K39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" t="s">
         <v>82</v>
-      </c>
-      <c r="L39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>&lt;a href='2.4_8_4.html' class=Questions&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="29"/>
@@ -2235,10 +2235,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8sinrulecosrulesectorareascafolded,nonratrig8sinrulecosrulesectorareanotscafolded,,,,</v>
       </c>
       <c r="K40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" t="s">
         <v>87</v>
-      </c>
-      <c r="L40" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2247,7 +2247,7 @@
         <v>&lt;a href='2.4_8_5.html' class=Questions&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="21"/>
@@ -2277,10 +2277,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8threetrianglesandsectorscafolded,nonratrig8threetrianglesandsectornotscafolded,,,,</v>
       </c>
       <c r="K41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" t="s">
         <v>89</v>
-      </c>
-      <c r="L41" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2356,7 +2356,7 @@
         <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="21"/>
@@ -2392,7 +2392,7 @@
         <v>&lt;a href='2.4_9_3.html' class=Questions&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="35">IF(I45&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>

--- a/2.4/left.xlsx
+++ b/2.4/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Before</t>
   </si>
@@ -170,18 +170,12 @@
     <t>Lesson 8: Multi Step Questions</t>
   </si>
   <si>
-    <t>Lesson 8.1: Examples of Multi Step Questions</t>
-  </si>
-  <si>
     <t>Lesson 9: Investigation Questions</t>
   </si>
   <si>
     <t>Lesson 9.1: Example Investigation Question</t>
   </si>
   <si>
-    <t>Great place to include an extra video on ambigous sin rule</t>
-  </si>
-  <si>
     <t>nonratrig1findarea</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>nonratrig7sectorfindeverything</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/embed/egsIc4y_7F8</t>
   </si>
   <si>
@@ -303,6 +294,27 @@
   </si>
   <si>
     <t>https://www.youtube.com/embed/SFMm7aXTMhE</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.9.1.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=http://students.mathsnz.com/2.4/pdfs/2.4.9.2.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>Lesson 5.5: Bonus Video - The Ambiguous Sine Rule</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EKn_EO0_fns</t>
+  </si>
+  <si>
+    <t>Lesson 8.1: Example of a Multi Step Question</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/n28ao6lIwF0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/exLNdlibtH8</t>
   </si>
 </sst>
 </file>
@@ -326,18 +338,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -359,7 +365,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,17 +647,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -701,7 +707,7 @@
         <v>Lesson 1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F44" si="1">RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
+        <f t="shared" ref="F2:F45" si="1">RIGHT(E2,LEN(E2)-FIND(" ",E2))</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
@@ -718,7 +724,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A44" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A3:A45" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_1_1.html' class=Video&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -748,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -783,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -822,19 +828,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,nonratrig1findarea,</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -869,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -910,7 +916,7 @@
         <v>&lt;a href='2.4_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -936,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -975,19 +981,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,nonratrig2cosfindside,</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1026,19 +1032,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1073,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1140,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1179,19 +1185,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig3cosfindangle,</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1230,19 +1236,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1344,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1383,19 +1389,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,nonratrig4sinfindside,</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1434,19 +1440,19 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig2mixedareaandcosfindside,nonratrig4sinfindside,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,</v>
       </c>
       <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
         <v>52</v>
       </c>
-      <c r="L20" t="s">
-        <v>54</v>
-      </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,23 +1487,24 @@
         <v>8</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I22&lt;&gt;"Lesson","&lt;a href='"&amp;H22&amp;".html' class="&amp;I22&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C44" si="21">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f>IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:E28" si="22">LEFT(B22,FIND(":",B22)-1)</f>
+        <f>LEFT(B22,FIND(":",B22)-1)</f>
         <v>Lesson 5</v>
       </c>
       <c r="F22" t="str">
@@ -1505,11 +1512,11 @@
         <v>5</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G28" si="23">SUBSTITUTE(F22,".","_")</f>
+        <f t="shared" ref="G22:G29" si="21">SUBSTITUTE(F22,".","_")</f>
         <v>5</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H28" si="24">"2.4_"&amp;G22</f>
+        <f t="shared" ref="H22:H29" si="22">"2.4_"&amp;G22</f>
         <v>2.4_5</v>
       </c>
       <c r="I22" t="s">
@@ -1518,65 +1525,67 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I23&lt;&gt;"Lesson","&lt;a href='"&amp;H23&amp;".html' class="&amp;I23&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="str">
+        <f>IF(I23&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" t="str">
+        <f>LEFT(B23,FIND(":",B23)-1)</f>
+        <v>Lesson 5.1</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>5.1</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E23" t="str">
+        <v>5_1</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="22"/>
-        <v>Lesson 5.1</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>5.1</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="23"/>
-        <v>5_1</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="24"/>
         <v>2.4_5_1</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I24&lt;&gt;"Lesson","&lt;a href='"&amp;H24&amp;".html' class="&amp;I24&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_5_2.html' class=Questions&gt;</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="str">
+        <f>IF(I24&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="str">
+        <f>LEFT(B24,FIND(":",B24)-1)</f>
+        <v>Lesson 5.2</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E24" t="str">
+        <v>5_2</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="22"/>
-        <v>Lesson 5.2</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="23"/>
-        <v>5_2</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="24"/>
         <v>2.4_5_2</v>
       </c>
       <c r="I24" t="s">
@@ -1587,47 +1596,48 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,nonratrig5sinfindangle,</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_5_3.html' class=Questions&gt;</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="str">
+        <f>IF(I25&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" t="str">
+        <f>LEFT(B25,FIND(":",B25)-1)</f>
+        <v>Lesson 5.3</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E25" t="str">
+        <v>5_3</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="22"/>
-        <v>Lesson 5.3</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>5.3</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="23"/>
-        <v>5_3</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="24"/>
         <v>2.4_5_3</v>
       </c>
       <c r="I25" t="s">
@@ -1638,788 +1648,824 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig4sinfindside,nonratrig2mixedareaandcosfindside,nonratrig3cosfindangle,nonratrig3cosfindangle,nonratrig2mixedareaandcosfindside,</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I26&lt;&gt;"Lesson","&lt;a href='"&amp;H26&amp;".html' class="&amp;I26&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_5_4.html' class=Document&gt;</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
+        <f>IF(I26&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" t="str">
-        <f t="shared" si="22"/>
+        <f>LEFT(B26,FIND(":",B26)-1)</f>
         <v>Lesson 5.4</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F26" si="23">RIGHT(E26,LEN(E26)-FIND(" ",E26))</f>
         <v>5.4</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G26" si="24">SUBSTITUTE(F26,".","_")</f>
         <v>5_4</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H26" si="25">"2.4_"&amp;G26</f>
         <v>2.4_5_4</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
+        <f>IF(I27&lt;&gt;"Lesson","&lt;a href='"&amp;H27&amp;".html' class="&amp;I27&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_5_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
       </c>
       <c r="C27" t="str">
+        <f>IF(I27&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" t="str">
+        <f>LEFT(B27,FIND(":",B27)-1)</f>
+        <v>Lesson 5.5</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/span&gt;</v>
-      </c>
-      <c r="E27" t="str">
+        <v>5_5</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="22"/>
-        <v>Lesson 6</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="24"/>
-        <v>2.4_6</v>
+        <v>2.4_5_5</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='2.4_6_1.html' class=Video&gt;</v>
+        <f>IF(I28&lt;&gt;"Lesson","&lt;a href='"&amp;H28&amp;".html' class="&amp;I28&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="str">
+        <f>IF(I28&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" t="str">
+        <f>LEFT(B28,FIND(":",B28)-1)</f>
+        <v>Lesson 6</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E28" t="str">
+        <v>6</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="22"/>
-        <v>Lesson 6.1</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="23"/>
-        <v>6_1</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="24"/>
-        <v>2.4_6_1</v>
+        <v>2.4_6</v>
       </c>
       <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='2.4_6_2.html' class=Questions&gt;</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <f>IF(I29&lt;&gt;"Lesson","&lt;a href='"&amp;H29&amp;".html' class="&amp;I29&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_6_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C29" t="str">
+        <f>IF(I29&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" t="str">
+        <f>LEFT(B29,FIND(":",B29)-1)</f>
+        <v>Lesson 6.1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" ref="E29:E44" si="25">LEFT(B29,FIND(":",B29)-1)</f>
-        <v>Lesson 6.2</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" ref="G29:G44" si="26">SUBSTITUTE(F29,".","_")</f>
-        <v>6_2</v>
+        <v>6_1</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:H44" si="27">"2.4_"&amp;G29</f>
-        <v>2.4_6_2</v>
+        <f t="shared" si="22"/>
+        <v>2.4_6_1</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K29&amp;","&amp;L29&amp;","&amp;M29&amp;","&amp;N29&amp;","&amp;O29&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
-      </c>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(I30&lt;&gt;"Lesson","&lt;a href='"&amp;H30&amp;".html' class="&amp;I30&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_6_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(I30&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" t="str">
+        <f>LEFT(B30,FIND(":",B30)-1)</f>
+        <v>Lesson 6.2</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ref="G30:G45" si="26">SUBSTITUTE(F30,".","_")</f>
+        <v>6_2</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H45" si="27">"2.4_"&amp;G30</f>
+        <v>2.4_6_2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K30&amp;","&amp;L30&amp;","&amp;M30&amp;","&amp;N30&amp;","&amp;O30&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,nonratrig7sectorfindarea,</v>
+      </c>
+      <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>IF(I31&lt;&gt;"Lesson","&lt;a href='"&amp;H31&amp;".html' class="&amp;I31&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='2.4_6_3.html' class=Document&gt;</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="25"/>
+      <c r="C31" t="str">
+        <f>IF(I31&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" t="str">
+        <f>LEFT(B31,FIND(":",B31)-1)</f>
         <v>Lesson 6.3</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="26"/>
         <v>6_3</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="27"/>
         <v>2.4_6_3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
+      <c r="J31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="21"/>
+      <c r="C32" t="str">
+        <f t="shared" ref="C32:C45" si="28">IF(I32&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="25"/>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32:E45" si="29">LEFT(B32,FIND(":",B32)-1)</f>
         <v>Lesson 7</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="26"/>
         <v>7</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="27"/>
         <v>2.4_7</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_1.html' class=Video&gt;</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="25"/>
+      <c r="C33" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 7.1</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="26"/>
         <v>7_1</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="27"/>
         <v>2.4_7_1</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
+      <c r="J33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="25"/>
+      <c r="C34" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 7.2</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="26"/>
         <v>7_2</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="27"/>
         <v>2.4_7_2</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K33&amp;","&amp;L33&amp;","&amp;M33&amp;","&amp;N33&amp;","&amp;O33&amp;","</f>
+      <c r="J34" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;","&amp;O34&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindarc,nonratrig6sectorfindper,nonratrig6sectorfindper,</v>
       </c>
-      <c r="K33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" t="s">
-        <v>56</v>
-      </c>
-      <c r="N33" t="s">
-        <v>57</v>
-      </c>
-      <c r="O33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_3.html' class=Questions&gt;</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="25"/>
+      <c r="C35" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 7.3</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G35" t="str">
         <f t="shared" si="26"/>
         <v>7_3</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="27"/>
         <v>2.4_7_3</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K34&amp;","&amp;L34&amp;","&amp;M34&amp;","&amp;N34&amp;","&amp;O34&amp;","</f>
+      <c r="J35" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K35&amp;","&amp;L35&amp;","&amp;M35&amp;","&amp;N35&amp;","&amp;O35&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,nonratrig7sectorfindeverything,</v>
       </c>
-      <c r="K34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_7_4.html' class=Document&gt;</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="25"/>
+      <c r="C36" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 7.4</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G36" t="str">
         <f t="shared" si="26"/>
         <v>7_4</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="27"/>
         <v>2.4_7_4</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
+      <c r="J36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="21"/>
+      <c r="C37" t="str">
+        <f t="shared" si="28"/>
         <v>&lt;/span&gt;</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="25"/>
+      <c r="E37" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 8</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="27"/>
         <v>2.4_8</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_1.html' class=Video&gt;</v>
       </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="25"/>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 8.1</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="1"/>
         <v>8.1</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="26"/>
         <v>8_1</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="27"/>
         <v>2.4_8_1</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>9</v>
       </c>
-      <c r="J37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
+      <c r="J38" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_2.html' class=Questions&gt;</v>
       </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="25"/>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 8.2</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
         <v>8.2</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="26"/>
         <v>8_2</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="27"/>
         <v>2.4_8_2</v>
       </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulecosruleareascafolded,nonratrig8cosrulecosruleareanotscafolded,,,,</v>
-      </c>
-      <c r="K38" t="s">
-        <v>83</v>
-      </c>
-      <c r="L38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f t="shared" ref="A39:A40" si="28">IF(I39&lt;&gt;"Lesson","&lt;a href='"&amp;H39&amp;".html' class="&amp;I39&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='2.4_8_3.html' class=Questions&gt;</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" ref="C39:C40" si="29">IF(I39&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" ref="E39:E40" si="30">LEFT(B39,FIND(":",B39)-1)</f>
-        <v>Lesson 8.3</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" ref="F39:F40" si="31">RIGHT(E39,LEN(E39)-FIND(" ",E39))</f>
-        <v>8.3</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" ref="G39:G40" si="32">SUBSTITUTE(F39,".","_")</f>
-        <v>8_3</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" ref="H39:H40" si="33">"2.4_"&amp;G39</f>
-        <v>2.4_8_3</v>
-      </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K39&amp;","&amp;L39&amp;","&amp;M39&amp;","&amp;N39&amp;","&amp;O39&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulesinruleareascafolded,nonratrig8cosrulesinruleareanotscafolded,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulecosruleareascafolded,nonratrig8cosrulecosruleareanotscafolded,,,,</v>
       </c>
       <c r="K39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
         <v>81</v>
-      </c>
-      <c r="L39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f t="shared" si="28"/>
-        <v>&lt;a href='2.4_8_4.html' class=Questions&gt;</v>
+        <f t="shared" ref="A40:A41" si="30">IF(I40&lt;&gt;"Lesson","&lt;a href='"&amp;H40&amp;".html' class="&amp;I40&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_8_3.html' class=Questions&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="C40:C41" si="31">IF(I40&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="30"/>
-        <v>Lesson 8.4</v>
+        <f t="shared" ref="E40:E41" si="32">LEFT(B40,FIND(":",B40)-1)</f>
+        <v>Lesson 8.3</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="31"/>
-        <v>8.4</v>
+        <f t="shared" ref="F40:F41" si="33">RIGHT(E40,LEN(E40)-FIND(" ",E40))</f>
+        <v>8.3</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="32"/>
-        <v>8_4</v>
+        <f t="shared" ref="G40:G41" si="34">SUBSTITUTE(F40,".","_")</f>
+        <v>8_3</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="33"/>
-        <v>2.4_8_4</v>
+        <f t="shared" ref="H40:H41" si="35">"2.4_"&amp;G40</f>
+        <v>2.4_8_3</v>
       </c>
       <c r="I40" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;","&amp;N40&amp;","&amp;O40&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8sinrulecosrulesectorareascafolded,nonratrig8sinrulecosrulesectorareanotscafolded,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8cosrulesinruleareascafolded,nonratrig8cosrulesinruleareanotscafolded,,,,</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;a href='2.4_8_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="32"/>
+        <v>Lesson 8.4</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="33"/>
+        <v>8.4</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="34"/>
+        <v>8_4</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="35"/>
+        <v>2.4_8_4</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K41&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;N41&amp;","&amp;O41&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8sinrulecosrulesectorareascafolded,nonratrig8sinrulecosrulesectorareanotscafolded,,,,</v>
+      </c>
+      <c r="K41" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_8_5.html' class=Questions&gt;</v>
       </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="25"/>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 8.5</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="26"/>
         <v>8_5</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="27"/>
         <v>2.4_8_5</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K41&amp;","&amp;L41&amp;","&amp;M41&amp;","&amp;N41&amp;","&amp;O41&amp;","</f>
+      <c r="J42" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#nonratrig8threetrianglesandsectorscafolded,nonratrig8threetrianglesandsectornotscafolded,,,,</v>
       </c>
-      <c r="K41" t="s">
-        <v>88</v>
-      </c>
-      <c r="L41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
+      <c r="K42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="21"/>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="28"/>
         <v>&lt;/span&gt;</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="25"/>
+      <c r="E43" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 9</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='2.4_9_1.html' class=Video&gt;</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="25"/>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 9.1</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="26"/>
         <v>9_1</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9_1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>9</v>
       </c>
-      <c r="J43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='2.4_9_2.html' class=Questions&gt;</v>
-      </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="21"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="25"/>
+      <c r="J44" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='2.4_9_2.html' class=Document&gt;</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="29"/>
         <v>Lesson 9.2</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="1"/>
         <v>9.2</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G45" t="str">
         <f t="shared" si="26"/>
         <v>9_2</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="27"/>
         <v>2.4_9_2</v>
       </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K44&amp;","&amp;L44&amp;","&amp;M44&amp;","&amp;N44&amp;","&amp;O44&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f t="shared" ref="A45" si="34">IF(I45&lt;&gt;"Lesson","&lt;a href='"&amp;H45&amp;".html' class="&amp;I45&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='2.4_9_3.html' class=Questions&gt;</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" ref="C45" si="35">IF(I45&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" ref="E45" si="36">LEFT(B45,FIND(":",B45)-1)</f>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46" si="36">IF(I46&lt;&gt;"Lesson","&lt;a href='"&amp;H46&amp;".html' class="&amp;I46&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='2.4_9_3.html' class=Document&gt;</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ref="C46" si="37">IF(I46&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46" si="38">LEFT(B46,FIND(":",B46)-1)</f>
         <v>Lesson 9.3</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" ref="F45" si="37">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
+      <c r="F46" t="str">
+        <f t="shared" ref="F46" si="39">RIGHT(E46,LEN(E46)-FIND(" ",E46))</f>
         <v>9.3</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" ref="G45" si="38">SUBSTITUTE(F45,".","_")</f>
+      <c r="G46" t="str">
+        <f t="shared" ref="G46" si="40">SUBSTITUTE(F46,".","_")</f>
         <v>9_3</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" ref="H45" si="39">"2.4_"&amp;G45</f>
+      <c r="H46" t="str">
+        <f t="shared" ref="H46" si="41">"2.4_"&amp;G46</f>
         <v>2.4_9_3</v>
       </c>
-      <c r="I45" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;K45&amp;","&amp;L45&amp;","&amp;M45&amp;","&amp;N45&amp;","&amp;O45&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#,,,,,</v>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2431,16 +2477,21 @@
     <hyperlink ref="J13" r:id="rId5"/>
     <hyperlink ref="J18" r:id="rId6"/>
     <hyperlink ref="J23" r:id="rId7"/>
-    <hyperlink ref="J28" r:id="rId8"/>
-    <hyperlink ref="J32" r:id="rId9"/>
+    <hyperlink ref="J29" r:id="rId8"/>
+    <hyperlink ref="J33" r:id="rId9"/>
     <hyperlink ref="J11" r:id="rId10"/>
     <hyperlink ref="J16" r:id="rId11"/>
     <hyperlink ref="J21" r:id="rId12"/>
-    <hyperlink ref="J26" r:id="rId13"/>
-    <hyperlink ref="J30" r:id="rId14"/>
-    <hyperlink ref="J35" r:id="rId15"/>
+    <hyperlink ref="J31" r:id="rId13"/>
+    <hyperlink ref="J36" r:id="rId14"/>
+    <hyperlink ref="J38" r:id="rId15"/>
+    <hyperlink ref="J45" r:id="rId16"/>
+    <hyperlink ref="J46" r:id="rId17"/>
+    <hyperlink ref="J26" r:id="rId18"/>
+    <hyperlink ref="J27" r:id="rId19"/>
+    <hyperlink ref="J44" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>